--- a/VennOutput/Trimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/Trimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -484,7 +484,9 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +523,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,7 +562,9 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -595,7 +601,9 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,7 +640,9 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -669,7 +679,9 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -706,7 +718,9 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -743,7 +757,9 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -780,7 +796,9 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -817,7 +835,9 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -854,7 +874,9 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -891,7 +913,9 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -928,7 +952,9 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -965,7 +991,9 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1002,7 +1030,9 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1039,7 +1069,9 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1076,7 +1108,9 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1113,7 +1147,9 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1150,7 +1186,9 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1187,7 +1225,9 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1224,7 +1264,9 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1261,7 +1303,9 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1298,7 +1342,9 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1335,7 +1381,9 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1372,7 +1420,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1409,7 +1459,9 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1446,7 +1498,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1483,7 +1537,9 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1520,7 +1576,9 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1557,7 +1615,9 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1594,7 +1654,9 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1631,7 +1693,9 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1668,7 +1732,9 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1705,7 +1771,9 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1742,7 +1810,9 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1779,7 +1849,9 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1816,7 +1888,9 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1853,7 +1927,9 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1890,7 +1966,9 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1927,7 +2005,9 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1964,7 +2044,9 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2001,7 +2083,9 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2038,7 +2122,9 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2075,7 +2161,9 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2112,7 +2200,9 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2149,7 +2239,9 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2186,7 +2278,9 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">

--- a/VennOutput/Trimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/Trimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -370,52 +370,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Case No.x</t>
+          <t>Case No</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRR.x</t>
+          <t>PRR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.x</t>
+          <t>Percentage of cases</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.x</t>
+          <t>Xsquared</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Significance.x</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case No.y</t>
+          <t>Case No.MODERNA_BI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PRR.y</t>
+          <t>PRR.MODERNA_BI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.y</t>
+          <t>Percentage of cases.MODERNA_BI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.y</t>
+          <t>Xsquared.MODERNA_BI</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Significance.y</t>
+          <t>Significance.MODERNA_BI</t>
         </is>
       </c>
     </row>
